--- a/data/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/data/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12075,7 +12075,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13674,7 +13674,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14376,7 +14376,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14454,7 +14454,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15195,7 +15195,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16092,7 +16092,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16482,7 +16482,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16599,7 +16599,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16794,7 +16794,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16950,7 +16950,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16989,7 +16989,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17184,7 +17184,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17535,7 +17535,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17574,7 +17574,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17691,7 +17691,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18042,7 +18042,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18159,7 +18159,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18276,7 +18276,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18354,7 +18354,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18432,7 +18432,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -18783,7 +18783,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18822,7 +18822,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18861,7 +18861,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19017,7 +19017,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19056,7 +19056,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19134,7 +19134,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
